--- a/in/3cam_flame.xlsx
+++ b/in/3cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="981" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -1338,7 +1338,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="H20" activeCellId="1" sqref="D38 H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1985,9 +1985,9 @@
   <dimension ref="A1:IR45"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
+      <selection pane="bottomLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9103,7 +9103,9 @@
       <c r="C38" s="4" t="n">
         <v>77.5</v>
       </c>
-      <c r="D38" s="0"/>
+      <c r="D38" s="4" t="n">
+        <v>77.5</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
@@ -9215,7 +9217,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="1" sqref="D38 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/in/3cam_flame.xlsx
+++ b/in/3cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -404,7 +404,7 @@
     <t>reactionParam</t>
   </si>
   <si>
-    <t>../transcar-utils/precompute/vjeinfc.h5</t>
+    <t>transcarutils/precompute/vjeinfc.h5</t>
   </si>
   <si>
     <t>altitudePreload</t>
@@ -542,7 +542,7 @@
     <t>FOVmaxLengthKM</t>
   </si>
   <si>
-    <t>noiseStd</t>
+    <t>noiseLam</t>
   </si>
   <si>
     <t>CCDBias</t>
@@ -1335,10 +1335,10 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H20" activeCellId="1" sqref="D38 H20"/>
+      <selection pane="bottomLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1525,7 +1525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -1984,10 +1984,10 @@
   </sheetPr>
   <dimension ref="A1:IR45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+      <selection pane="bottomLeft" activeCell="D9" activeCellId="1" sqref="H16 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4098,13 +4098,13 @@
         <v>78</v>
       </c>
       <c r="B9" s="50" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C9" s="50" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -9217,7 +9217,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="1" sqref="D38 A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="1" sqref="H16 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/in/3cam_flame.xlsx
+++ b/in/3cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0">
+    <comment ref="A14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0">
+    <comment ref="A19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>[nm] for plotting only
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0">
+    <comment ref="A32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="0">
+    <comment ref="A36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A34" authorId="0">
+    <comment ref="A38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A39" authorId="0">
+    <comment ref="A43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A55" authorId="0">
+    <comment ref="A59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A60" authorId="0">
+    <comment ref="A64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -268,7 +282,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0">
+    <comment ref="A8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0">
+    <comment ref="A9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -306,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="133">
   <si>
     <t>Sim</t>
   </si>
@@ -350,19 +364,19 @@
     <t>BG3transFN</t>
   </si>
   <si>
-    <t>../transcar-utils/precompute/BG3transmittance.h5</t>
+    <t>transcarutils/precompute/BG3transmittance.h5</t>
   </si>
   <si>
     <t>windowFN</t>
   </si>
   <si>
-    <t>../transcar-utils/precompute/ixonWindowT.h5</t>
+    <t>transcarutils/precompute/ixonWindowT.h5</t>
   </si>
   <si>
     <t>emccdQEfn</t>
   </si>
   <si>
-    <t>../transcar-utils/precompute/emccdQE.h5</t>
+    <t>transcarutils/precompute/emccdQE.h5</t>
   </si>
   <si>
     <t>TranscarDataDir</t>
@@ -383,6 +397,9 @@
     <t>2013-03-31T09:00:30Z</t>
   </si>
   <si>
+    <t>timestepsPerExposure</t>
+  </si>
+  <si>
     <t>simconfig</t>
   </si>
   <si>
@@ -416,6 +433,12 @@
     <t>downsampleEnergy</t>
   </si>
   <si>
+    <t>lambdamin</t>
+  </si>
+  <si>
+    <t>lambdamax</t>
+  </si>
+  <si>
     <t>OpticalFilter</t>
   </si>
   <si>
@@ -642,6 +665,9 @@
   </si>
   <si>
     <t>ampgain</t>
+  </si>
+  <si>
+    <t>tReqOffsetSec</t>
   </si>
   <si>
     <t>X0km</t>
@@ -706,7 +732,7 @@
     <numFmt numFmtId="167" formatCode="0"/>
     <numFmt numFmtId="168" formatCode="0.00E+000"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -780,6 +806,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF9900FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -1002,7 +1034,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1079,6 +1111,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1087,7 +1123,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1103,7 +1139,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1179,19 +1215,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1215,7 +1251,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1248,6 +1284,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1333,15 +1373,15 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="B16" activeCellId="1" sqref="D43:D45 B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9744897959184"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.1071428571429"/>
@@ -1354,7 +1394,7 @@
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5561224489796"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1377,7 +1417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1408,7 +1448,7 @@
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1439,7 +1479,7 @@
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1487,29 +1527,31 @@
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="0"/>
+      <c r="B12" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="G12" s="0"/>
-      <c r="H12" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="5"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="0"/>
+      <c r="B14" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="C14" s="7"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
@@ -1521,393 +1563,398 @@
       <c r="B15" s="0"/>
       <c r="C15" s="7"/>
       <c r="G15" s="0"/>
-      <c r="H15" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="H15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="7"/>
       <c r="G16" s="0"/>
       <c r="H16" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="7"/>
       <c r="G17" s="0"/>
       <c r="H17" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="0"/>
       <c r="C18" s="7"/>
       <c r="G18" s="0"/>
-      <c r="H18" s="1" t="n">
+      <c r="H18" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="7"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
-    </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="20"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="7"/>
       <c r="G20" s="0"/>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="19" t="n">
+        <v>200</v>
+      </c>
       <c r="C21" s="7"/>
       <c r="G21" s="0"/>
-      <c r="H21" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="21"/>
+      <c r="H21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="19" t="n">
+        <v>1200</v>
+      </c>
       <c r="C22" s="7"/>
       <c r="G22" s="0"/>
-      <c r="H22" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="7"/>
+      <c r="H22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
       <c r="G23" s="0"/>
-      <c r="H23" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>41</v>
+      <c r="H23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="7"/>
       <c r="G24" s="0"/>
-      <c r="H24" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="21"/>
+        <v>41</v>
+      </c>
+      <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="G25" s="0"/>
       <c r="H25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="21"/>
+        <v>42</v>
+      </c>
+      <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="G26" s="0"/>
       <c r="H26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
-      <c r="B27" s="21"/>
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="G27" s="0"/>
-      <c r="H27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="G28" s="0"/>
-      <c r="H28" s="22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="7"/>
       <c r="G29" s="0"/>
-      <c r="H29" s="23"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="H29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="7"/>
       <c r="G30" s="0"/>
-      <c r="H30" s="0"/>
+      <c r="H30" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="25"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="7"/>
       <c r="G31" s="0"/>
       <c r="H31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="s">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="7"/>
       <c r="G32" s="0"/>
-      <c r="H32" s="0"/>
+      <c r="H32" s="23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4"/>
+      <c r="A33" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="G33" s="0"/>
-      <c r="H33" s="0"/>
+      <c r="H33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="0"/>
-      <c r="C34" s="0"/>
-      <c r="G34" s="27" t="s">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
+      <c r="B35" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="26"/>
       <c r="G35" s="0"/>
       <c r="H35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+    <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="0"/>
-      <c r="C36" s="0"/>
-      <c r="G36" s="28"/>
+      <c r="B36" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="G36" s="0"/>
       <c r="H36" s="0"/>
     </row>
-    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="0"/>
-      <c r="C37" s="0"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4"/>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
-      <c r="G38" s="29"/>
+      <c r="G38" s="28" t="s">
+        <v>52</v>
+      </c>
       <c r="H38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="24" t="s">
-        <v>52</v>
-      </c>
       <c r="B39" s="0"/>
-      <c r="C39" s="13"/>
+      <c r="C39" s="0"/>
       <c r="G39" s="0"/>
-      <c r="H39" s="15" t="n">
-        <v>1</v>
-      </c>
+      <c r="H39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
-      <c r="D40" s="31" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="0"/>
+      <c r="G40" s="29"/>
       <c r="H40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="0"/>
+      <c r="G41" s="30"/>
       <c r="H41" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="30" t="s">
-        <v>55</v>
-      </c>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4"/>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
-      <c r="D42" s="33" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="E42" s="34"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="0"/>
+      <c r="G42" s="30"/>
       <c r="H42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="0"/>
+      <c r="C43" s="13"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="31" t="s">
         <v>56</v>
-      </c>
-      <c r="B43" s="0"/>
-      <c r="C43" s="0"/>
-      <c r="D43" s="33" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="0"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="30" t="s">
-        <v>57</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
-      <c r="D44" s="33" t="n">
-        <v>89</v>
-      </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="13"/>
+      <c r="D44" s="32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E44" s="33"/>
+      <c r="F44" s="5"/>
       <c r="G44" s="0"/>
       <c r="H44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="30" t="s">
-        <v>58</v>
+      <c r="A45" s="31" t="s">
+        <v>57</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
-      <c r="D45" s="35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="13"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="5"/>
       <c r="G45" s="0"/>
       <c r="H45" s="0"/>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4"/>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="31" t="s">
+        <v>58</v>
+      </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="13"/>
+      <c r="D46" s="34" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="E46" s="35"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="0"/>
+      <c r="H46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="31" t="s">
         <v>59</v>
       </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="15"/>
+      <c r="D47" s="34" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E47" s="35"/>
       <c r="F47" s="13"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4"/>
+      <c r="A48" s="31" t="s">
+        <v>60</v>
+      </c>
       <c r="B48" s="0"/>
       <c r="C48" s="0"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="D48" s="34" t="n">
+        <v>89</v>
+      </c>
+      <c r="E48" s="35"/>
       <c r="F48" s="13"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="7"/>
-      <c r="E49" s="0" t="s">
+      <c r="G48" s="0"/>
+      <c r="H48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="31" t="s">
         <v>61</v>
       </c>
+      <c r="B49" s="0"/>
+      <c r="C49" s="0"/>
+      <c r="D49" s="36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="37"/>
       <c r="F49" s="13"/>
+      <c r="G49" s="0"/>
+      <c r="H49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="A50" s="4"/>
       <c r="B50" s="0"/>
       <c r="C50" s="0"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="5" t="n">
-        <v>10</v>
-      </c>
+      <c r="E50" s="5"/>
       <c r="F50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="37"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
+      <c r="A51" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="0"/>
+      <c r="C51" s="0"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="A52" s="4"/>
       <c r="B52" s="0"/>
       <c r="C52" s="0"/>
-      <c r="F52" s="39"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="18"/>
+      <c r="C53" s="7"/>
+      <c r="E53" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="0"/>
-      <c r="C53" s="0"/>
-      <c r="F53" s="40"/>
+      <c r="F53" s="13"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
@@ -1915,55 +1962,85 @@
       </c>
       <c r="B54" s="0"/>
       <c r="C54" s="0"/>
-      <c r="F54" s="41"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="0"/>
-      <c r="C55" s="0"/>
-      <c r="F55" s="40"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" s="0"/>
       <c r="C56" s="0"/>
-      <c r="F56" s="27"/>
+      <c r="F56" s="40"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4"/>
+      <c r="A57" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="B57" s="0"/>
       <c r="C57" s="0"/>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F57" s="41"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F58" s="42"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
+      <c r="F59" s="41"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="5"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B60" s="0"/>
+      <c r="C60" s="0"/>
+      <c r="F60" s="28"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4"/>
+      <c r="B61" s="0"/>
+      <c r="C61" s="0"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="0"/>
+      <c r="C62" s="0"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0"/>
+      <c r="C63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="5"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1982,32 +2059,32 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IR45"/>
+  <dimension ref="A1:IQ45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D9" activeCellId="1" sqref="H16 D9"/>
+      <selection pane="bottomLeft" activeCell="D43" activeCellId="0" sqref="D43:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="21.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="22.9744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="23.0459183673469"/>
-    <col collapsed="false" hidden="false" max="252" min="4" style="43" width="10.4132653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="253" style="0" width="10.4132653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="21.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="22.9744897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="23.0459183673469"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="44" width="10.4132653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.4132653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="44" t="n">
+      <c r="B1" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="44" t="n">
+      <c r="C1" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="45" t="n">
+      <c r="D1" s="46" t="n">
         <v>2</v>
       </c>
       <c r="E1" s="0"/>
@@ -2257,11 +2334,10 @@
       <c r="IO1" s="0"/>
       <c r="IP1" s="0"/>
       <c r="IQ1" s="0"/>
-      <c r="IR1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2519,19 +2595,18 @@
       <c r="IO2" s="0"/>
       <c r="IP2" s="0"/>
       <c r="IQ2" s="0"/>
-      <c r="IR2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="46" t="n">
+      <c r="A3" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="46" t="n">
+      <c r="C3" s="47" t="n">
         <v>3.1436</v>
       </c>
-      <c r="D3" s="47" t="n">
+      <c r="D3" s="48" t="n">
         <v>10</v>
       </c>
       <c r="E3" s="0"/>
@@ -2781,16 +2856,15 @@
       <c r="IO3" s="0"/>
       <c r="IP3" s="0"/>
       <c r="IQ3" s="0"/>
-      <c r="IR3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="46" t="n">
+      <c r="A4" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="46" t="n">
+      <c r="C4" s="47" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
@@ -3043,11 +3117,10 @@
       <c r="IO4" s="0"/>
       <c r="IP4" s="0"/>
       <c r="IQ4" s="0"/>
-      <c r="IR4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
-        <v>74</v>
+      <c r="A5" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>512</v>
@@ -3305,16 +3378,15 @@
       <c r="IO5" s="0"/>
       <c r="IP5" s="0"/>
       <c r="IQ5" s="0"/>
-      <c r="IR5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="46" t="n">
+      <c r="A6" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="47" t="n">
         <v>90</v>
       </c>
-      <c r="C6" s="46" t="n">
+      <c r="C6" s="47" t="n">
         <v>88.3</v>
       </c>
       <c r="D6" s="0" t="n">
@@ -3567,16 +3639,15 @@
       <c r="IO6" s="0"/>
       <c r="IP6" s="0"/>
       <c r="IQ6" s="0"/>
-      <c r="IR6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="46" t="n">
+      <c r="A7" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="47" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="46" t="n">
+      <c r="C7" s="47" t="n">
         <v>9</v>
       </c>
       <c r="D7" s="0" t="n">
@@ -3829,11 +3900,10 @@
       <c r="IO7" s="0"/>
       <c r="IP7" s="0"/>
       <c r="IQ7" s="0"/>
-      <c r="IR7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="s">
-        <v>77</v>
+      <c r="A8" s="31" t="s">
+        <v>80</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1500</v>
@@ -4091,20 +4161,19 @@
       <c r="IO8" s="0"/>
       <c r="IP8" s="0"/>
       <c r="IQ8" s="0"/>
-      <c r="IR8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="50" t="n">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="B9" s="51" t="n">
+        <v>250</v>
+      </c>
+      <c r="C9" s="51" t="n">
+        <v>250</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -4353,21 +4422,14 @@
       <c r="IO9" s="0"/>
       <c r="IP9" s="0"/>
       <c r="IQ9" s="0"/>
-      <c r="IR9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="50" t="n">
-        <v>100</v>
-      </c>
-      <c r="C10" s="50" t="n">
-        <v>100</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>100</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -4615,11 +4677,10 @@
       <c r="IO10" s="0"/>
       <c r="IP10" s="0"/>
       <c r="IQ10" s="0"/>
-      <c r="IR10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="s">
-        <v>80</v>
+      <c r="A11" s="38" t="s">
+        <v>83</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4871,13 +4932,12 @@
       <c r="IO11" s="0"/>
       <c r="IP11" s="0"/>
       <c r="IQ11" s="0"/>
-      <c r="IR11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="51"/>
+        <v>84</v>
+      </c>
+      <c r="B12" s="52"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -5127,11 +5187,10 @@
       <c r="IO12" s="0"/>
       <c r="IP12" s="0"/>
       <c r="IQ12" s="0"/>
-      <c r="IR12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -5389,16 +5448,15 @@
       <c r="IO13" s="0"/>
       <c r="IP13" s="0"/>
       <c r="IQ13" s="0"/>
-      <c r="IR13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="53" t="n">
+      <c r="A14" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="54" t="n">
         <v>-1</v>
       </c>
-      <c r="C14" s="53" t="n">
+      <c r="C14" s="54" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="0"/>
@@ -5649,14 +5707,13 @@
       <c r="IO14" s="0"/>
       <c r="IP14" s="0"/>
       <c r="IQ14" s="0"/>
-      <c r="IR14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="54" t="s">
-        <v>84</v>
+      <c r="A15" s="55" t="s">
+        <v>87</v>
       </c>
       <c r="B15" s="0"/>
-      <c r="C15" s="55"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -5905,14 +5962,13 @@
       <c r="IO15" s="0"/>
       <c r="IP15" s="0"/>
       <c r="IQ15" s="0"/>
-      <c r="IR15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="54" t="s">
-        <v>85</v>
+      <c r="A16" s="55" t="s">
+        <v>88</v>
       </c>
       <c r="B16" s="0"/>
-      <c r="C16" s="55"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -6161,14 +6217,13 @@
       <c r="IO16" s="0"/>
       <c r="IP16" s="0"/>
       <c r="IQ16" s="0"/>
-      <c r="IR16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
+      <c r="A17" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -6417,11 +6472,10 @@
       <c r="IO17" s="0"/>
       <c r="IP17" s="0"/>
       <c r="IQ17" s="0"/>
-      <c r="IR17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6673,12 +6727,11 @@
       <c r="IO18" s="0"/>
       <c r="IP18" s="0"/>
       <c r="IQ18" s="0"/>
-      <c r="IR18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
       <c r="B19" s="0"/>
-      <c r="C19" s="59"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -6927,14 +6980,13 @@
       <c r="IO19" s="0"/>
       <c r="IP19" s="0"/>
       <c r="IQ19" s="0"/>
-      <c r="IR19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="59"/>
+        <v>91</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -7183,14 +7235,13 @@
       <c r="IO20" s="0"/>
       <c r="IP20" s="0"/>
       <c r="IQ20" s="0"/>
-      <c r="IR20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="59"/>
+        <v>92</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -7439,11 +7490,10 @@
       <c r="IO21" s="0"/>
       <c r="IP21" s="0"/>
       <c r="IQ21" s="0"/>
-      <c r="IR21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7695,11 +7745,10 @@
       <c r="IO22" s="0"/>
       <c r="IP22" s="0"/>
       <c r="IQ22" s="0"/>
-      <c r="IR22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7951,15 +8000,23 @@
       <c r="IO23" s="0"/>
       <c r="IP23" s="0"/>
       <c r="IQ23" s="0"/>
-      <c r="IR23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
+        <v>95</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <f aca="false">B9*0.9</f>
+        <v>225</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <f aca="false">C9*0.9</f>
+        <v>225</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <f aca="false">D9*0.9</f>
+        <v>225</v>
+      </c>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
@@ -8207,7 +8264,6 @@
       <c r="IO24" s="0"/>
       <c r="IP24" s="0"/>
       <c r="IQ24" s="0"/>
-      <c r="IR24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0"/>
@@ -8461,11 +8517,10 @@
       <c r="IO25" s="0"/>
       <c r="IP25" s="0"/>
       <c r="IQ25" s="0"/>
-      <c r="IR25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>15</v>
@@ -8473,12 +8528,12 @@
       <c r="C26" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="E26" s="0"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="0"/>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
@@ -8723,11 +8778,10 @@
       <c r="IO26" s="0"/>
       <c r="IP26" s="0"/>
       <c r="IQ26" s="0"/>
-      <c r="IR26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>2</v>
@@ -8735,12 +8789,12 @@
       <c r="C27" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E27" s="0"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="0"/>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
@@ -8985,17 +9039,15 @@
       <c r="IO27" s="0"/>
       <c r="IP27" s="0"/>
       <c r="IQ27" s="0"/>
-      <c r="IR27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0"/>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>512</v>
@@ -9003,13 +9055,13 @@
       <c r="C29" s="0" t="n">
         <v>512</v>
       </c>
-      <c r="D29" s="43" t="n">
+      <c r="D29" s="44" t="n">
         <v>512</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>512</v>
@@ -9017,13 +9069,13 @@
       <c r="C30" s="0" t="n">
         <v>512</v>
       </c>
-      <c r="D30" s="43" t="n">
+      <c r="D30" s="44" t="n">
         <v>512</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -9031,13 +9083,13 @@
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="43" t="n">
+      <c r="D31" s="44" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -9045,57 +9097,52 @@
       <c r="C32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="43" t="n">
+      <c r="D32" s="44" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
-      <c r="D33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
-      <c r="D34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="60" t="n">
+        <v>103</v>
+      </c>
+      <c r="B35" s="61" t="n">
         <v>65.1186367</v>
       </c>
-      <c r="C35" s="60" t="n">
+      <c r="C35" s="61" t="n">
         <v>65.12657</v>
       </c>
-      <c r="D35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="60" t="n">
+        <v>104</v>
+      </c>
+      <c r="B36" s="61" t="n">
         <v>-147.432975</v>
       </c>
-      <c r="C36" s="60" t="n">
+      <c r="C36" s="61" t="n">
         <v>-147.496908333</v>
       </c>
-      <c r="D36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
-      <c r="D37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>77.51</v>
@@ -9103,13 +9150,10 @@
       <c r="C38" s="4" t="n">
         <v>77.5</v>
       </c>
-      <c r="D38" s="4" t="n">
-        <v>77.5</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>19.92</v>
@@ -9117,81 +9161,77 @@
       <c r="C39" s="4" t="n">
         <v>19.9</v>
       </c>
-      <c r="D39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="0"/>
+        <v>108</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="0"/>
+        <v>111</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0"/>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
-      <c r="D42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="61" t="n">
+      <c r="A43" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="62" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C43" s="61" t="n">
+      <c r="C43" s="62" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="D43" s="61" t="n">
+      <c r="D43" s="62" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="43" t="n">
+      <c r="A44" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="43" t="n">
+      <c r="C44" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="D44" s="43" t="n">
+      <c r="D44" s="44" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45" s="43" t="n">
-        <v>10</v>
-      </c>
-      <c r="C45" s="43" t="n">
-        <v>10</v>
-      </c>
-      <c r="D45" s="43" t="n">
-        <v>10</v>
+      <c r="A45" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="44" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9212,12 +9252,12 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="1" sqref="H16 A1"/>
+      <selection pane="bottomLeft" activeCell="B4" activeCellId="1" sqref="D43:D45 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9228,420 +9268,405 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="n">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="C1" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="D1" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="n">
+      <c r="E1" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="n">
+      <c r="F1" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="n">
+      <c r="G1" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="n">
+      <c r="H1" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="0" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>112</v>
+      <c r="A2" s="0" t="s">
+        <v>115</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="63" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D2" s="63" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E2" s="63" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2" s="63" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2" s="63" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="63" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0.5</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="0" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>3750</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="H11" s="0" t="n">
         <v>500</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>2500</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>3750</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="62" t="n">
-        <v>80000000000</v>
-      </c>
-      <c r="C11" s="62" t="n">
-        <v>100000000000</v>
-      </c>
-      <c r="D11" s="62" t="n">
-        <v>225000000000</v>
-      </c>
-      <c r="E11" s="62" t="n">
-        <v>500000000000</v>
-      </c>
-      <c r="F11" s="62" t="n">
-        <v>700000000000</v>
-      </c>
-      <c r="G11" s="62" t="n">
-        <v>900000000000</v>
-      </c>
-      <c r="H11" s="62" t="n">
-        <v>1100000000000</v>
-      </c>
-      <c r="I11" s="62" t="n">
-        <v>1200000000000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>0.2</v>
+        <v>126</v>
+      </c>
+      <c r="B12" s="64" t="n">
+        <v>1100000000000</v>
+      </c>
+      <c r="C12" s="64" t="n">
+        <v>900000000000</v>
+      </c>
+      <c r="D12" s="64" t="n">
+        <v>700000000000</v>
+      </c>
+      <c r="E12" s="64" t="n">
+        <v>500000000000</v>
+      </c>
+      <c r="F12" s="64" t="n">
+        <v>225000000000</v>
+      </c>
+      <c r="G12" s="64" t="n">
+        <v>100000000000</v>
+      </c>
+      <c r="H12" s="64" t="n">
+        <v>110000000000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>900</v>
+        <v>4</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>1200</v>
+        <v>4</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>3000</v>
+        <v>4</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>4000</v>
+        <v>4</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>4750</v>
+        <v>4</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>5500</v>
+        <v>4</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>7500</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>9000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B17" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>5500</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>4750</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H18" s="0" t="n">
         <v>0.145</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/in/3cam_flame.xlsx
+++ b/in/3cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A59" authorId="0">
+    <comment ref="A60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A64" authorId="0">
+    <comment ref="A65" authorId="0">
       <text>
         <r>
           <rPr>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="134">
   <si>
     <t>Sim</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>OptimMaxiter</t>
+  </si>
+  <si>
+    <t>minflux</t>
   </si>
   <si>
     <t>maxIter</t>
@@ -1373,12 +1376,12 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B16" activeCellId="1" sqref="D43:D45 B16"/>
+      <selection pane="bottomLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1565,7 +1568,7 @@
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -1968,26 +1971,30 @@
       </c>
       <c r="F54" s="13"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="38"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
+    <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="0"/>
-      <c r="C56" s="0"/>
-      <c r="F56" s="40"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0"/>
+      <c r="C55" s="0"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="38"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B57" s="0"/>
       <c r="C57" s="0"/>
-      <c r="F57" s="41"/>
+      <c r="F57" s="40"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
@@ -1995,7 +2002,7 @@
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
-      <c r="F58" s="42"/>
+      <c r="F58" s="41"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
@@ -2003,7 +2010,7 @@
       </c>
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
-      <c r="F59" s="41"/>
+      <c r="F59" s="42"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
@@ -2011,35 +2018,43 @@
       </c>
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
-      <c r="F60" s="28"/>
+      <c r="F60" s="41"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4"/>
+      <c r="A61" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
-      <c r="F61" s="5"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="A62" s="4"/>
       <c r="B62" s="0"/>
       <c r="C62" s="0"/>
-      <c r="E62" s="43"/>
       <c r="F62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="B63" s="0"/>
       <c r="C63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" s="5" t="s">
+      <c r="E63" s="43"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0"/>
+      <c r="C64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="5"/>
+      <c r="B65" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2061,10 +2076,10 @@
   </sheetPr>
   <dimension ref="A1:IQ45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D43" activeCellId="0" sqref="D43:D45"/>
+      <selection pane="bottomLeft" activeCell="D43" activeCellId="1" sqref="E55 D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2337,7 +2352,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2598,7 +2613,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="47" t="n">
         <v>0</v>
@@ -2859,7 +2874,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" s="47" t="n">
         <v>0</v>
@@ -3120,7 +3135,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>512</v>
@@ -3381,7 +3396,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="49" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" s="47" t="n">
         <v>90</v>
@@ -3642,7 +3657,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" s="47" t="n">
         <v>9</v>
@@ -3903,7 +3918,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1500</v>
@@ -4164,7 +4179,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9" s="51" t="n">
         <v>250</v>
@@ -4425,7 +4440,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -4680,7 +4695,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4935,7 +4950,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B12" s="52"/>
       <c r="C12" s="0"/>
@@ -5190,7 +5205,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -5451,7 +5466,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="54" t="n">
         <v>-1</v>
@@ -5710,7 +5725,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="56"/>
@@ -5965,7 +5980,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="56"/>
@@ -6220,7 +6235,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="57" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B17" s="58"/>
       <c r="C17" s="59"/>
@@ -6475,7 +6490,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6983,7 +6998,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="60"/>
@@ -7238,7 +7253,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21" s="52"/>
       <c r="C21" s="60"/>
@@ -7493,7 +7508,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7748,7 +7763,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -8003,7 +8018,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">B9*0.9</f>
@@ -8520,7 +8535,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>15</v>
@@ -8781,7 +8796,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>2</v>
@@ -9044,10 +9059,11 @@
       <c r="A28" s="0"/>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>512</v>
@@ -9061,7 +9077,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>512</v>
@@ -9075,7 +9091,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -9089,7 +9105,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -9103,19 +9119,21 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B35" s="61" t="n">
         <v>65.1186367</v>
@@ -9123,10 +9141,11 @@
       <c r="C35" s="61" t="n">
         <v>65.12657</v>
       </c>
+      <c r="D35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B36" s="61" t="n">
         <v>-147.432975</v>
@@ -9134,15 +9153,17 @@
       <c r="C36" s="61" t="n">
         <v>-147.496908333</v>
       </c>
+      <c r="D36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>77.51</v>
@@ -9150,10 +9171,11 @@
       <c r="C38" s="4" t="n">
         <v>77.5</v>
       </c>
+      <c r="D38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>19.92</v>
@@ -9161,37 +9183,41 @@
       <c r="C39" s="4" t="n">
         <v>19.9</v>
       </c>
+      <c r="D39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>111</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0"/>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B43" s="62" t="n">
         <f aca="false">(0.0016)^2</f>
@@ -9208,7 +9234,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B44" s="44" t="n">
         <v>1</v>
@@ -9222,7 +9248,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B45" s="44" t="n">
         <v>1</v>
@@ -9257,7 +9283,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B4" activeCellId="1" sqref="D43:D45 B4"/>
+      <selection pane="bottomLeft" activeCell="B4" activeCellId="1" sqref="E55 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9293,7 +9319,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>0</v>
@@ -9319,7 +9345,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>6</v>
@@ -9343,23 +9369,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>0.1</v>
@@ -9385,7 +9411,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
@@ -9411,59 +9437,59 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>10000</v>
@@ -9489,7 +9515,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" s="64" t="n">
         <v>1100000000000</v>
@@ -9515,7 +9541,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.25</v>
@@ -9541,7 +9567,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.8</v>
@@ -9567,7 +9593,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3</v>
@@ -9593,7 +9619,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
@@ -9619,7 +9645,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>7500</v>
@@ -9645,7 +9671,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.4</v>

--- a/in/3cam_flame.xlsx
+++ b/in/3cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -1037,7 +1037,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1242,6 +1242,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1378,7 +1382,7 @@
   </sheetPr>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
@@ -2076,10 +2080,10 @@
   </sheetPr>
   <dimension ref="A1:IQ45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D43" activeCellId="1" sqref="E55 D43"/>
+      <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3133,7 +3137,7 @@
       <c r="IP4" s="0"/>
       <c r="IQ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="s">
         <v>78</v>
       </c>
@@ -3394,18 +3398,18 @@
       <c r="IP5" s="0"/>
       <c r="IQ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="47" t="n">
+      <c r="B6" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="C6" s="47" t="n">
-        <v>88.3</v>
+      <c r="C6" s="4" t="n">
+        <v>88.0172525718237</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>86.5</v>
+        <v>84.5023843355177</v>
       </c>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
@@ -3655,18 +3659,18 @@
       <c r="IP6" s="0"/>
       <c r="IQ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="47" t="n">
+      <c r="B7" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="47" t="n">
+      <c r="C7" s="4" t="n">
         <v>9</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="E7" s="0"/>
       <c r="F7" s="0"/>
@@ -3916,7 +3920,7 @@
       <c r="IP7" s="0"/>
       <c r="IQ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="31" t="s">
         <v>81</v>
       </c>
@@ -4177,7 +4181,7 @@
       <c r="IP8" s="0"/>
       <c r="IQ8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>82</v>
       </c>
@@ -4442,8 +4446,8 @@
       <c r="A10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -4952,7 +4956,7 @@
       <c r="A12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -5465,13 +5469,13 @@
       <c r="IQ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="54" t="n">
+      <c r="B14" s="55" t="n">
         <v>-1</v>
       </c>
-      <c r="C14" s="54" t="n">
+      <c r="C14" s="55" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="0"/>
@@ -5724,11 +5728,11 @@
       <c r="IQ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="56" t="s">
         <v>88</v>
       </c>
       <c r="B15" s="0"/>
-      <c r="C15" s="56"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -5979,11 +5983,11 @@
       <c r="IQ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="56" t="s">
         <v>89</v>
       </c>
       <c r="B16" s="0"/>
-      <c r="C16" s="56"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -6234,11 +6238,11 @@
       <c r="IQ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -6746,7 +6750,7 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
       <c r="B19" s="0"/>
-      <c r="C19" s="60"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -7000,8 +7004,8 @@
       <c r="A20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="60"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -7255,8 +7259,8 @@
       <c r="A21" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="60"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -9135,10 +9139,10 @@
       <c r="A35" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="61" t="n">
+      <c r="B35" s="62" t="n">
         <v>65.1186367</v>
       </c>
-      <c r="C35" s="61" t="n">
+      <c r="C35" s="62" t="n">
         <v>65.12657</v>
       </c>
       <c r="D35" s="0"/>
@@ -9147,10 +9151,10 @@
       <c r="A36" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="61" t="n">
+      <c r="B36" s="62" t="n">
         <v>-147.432975</v>
       </c>
-      <c r="C36" s="61" t="n">
+      <c r="C36" s="62" t="n">
         <v>-147.496908333</v>
       </c>
       <c r="D36" s="0"/>
@@ -9219,15 +9223,15 @@
       <c r="A43" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="62" t="n">
+      <c r="B43" s="63" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C43" s="62" t="n">
+      <c r="C43" s="63" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="D43" s="62" t="n">
+      <c r="D43" s="63" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
@@ -9283,7 +9287,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B4" activeCellId="1" sqref="E55 B4"/>
+      <selection pane="bottomLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9324,22 +9328,22 @@
       <c r="B2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="n">
+      <c r="C2" s="64" t="n">
         <v>0.02</v>
       </c>
-      <c r="D2" s="63" t="n">
+      <c r="D2" s="64" t="n">
         <v>0.04</v>
       </c>
-      <c r="E2" s="63" t="n">
+      <c r="E2" s="64" t="n">
         <v>0.06</v>
       </c>
-      <c r="F2" s="63" t="n">
+      <c r="F2" s="64" t="n">
         <v>0.08</v>
       </c>
-      <c r="G2" s="63" t="n">
+      <c r="G2" s="64" t="n">
         <v>0.1</v>
       </c>
-      <c r="H2" s="63" t="n">
+      <c r="H2" s="64" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -9517,25 +9521,25 @@
       <c r="A12" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="64" t="n">
+      <c r="B12" s="65" t="n">
         <v>1100000000000</v>
       </c>
-      <c r="C12" s="64" t="n">
+      <c r="C12" s="65" t="n">
         <v>900000000000</v>
       </c>
-      <c r="D12" s="64" t="n">
+      <c r="D12" s="65" t="n">
         <v>700000000000</v>
       </c>
-      <c r="E12" s="64" t="n">
+      <c r="E12" s="65" t="n">
         <v>500000000000</v>
       </c>
-      <c r="F12" s="64" t="n">
+      <c r="F12" s="65" t="n">
         <v>225000000000</v>
       </c>
-      <c r="G12" s="64" t="n">
+      <c r="G12" s="65" t="n">
         <v>100000000000</v>
       </c>
-      <c r="H12" s="64" t="n">
+      <c r="H12" s="65" t="n">
         <v>110000000000</v>
       </c>
     </row>

--- a/in/3cam_flame.xlsx
+++ b/in/3cam_flame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,11 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm_Sheet_Title" vbProcedure="false">"Sheet1"</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -33,7 +38,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -102,10 +106,8 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -118,7 +120,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -132,10 +133,8 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -148,10 +147,8 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -167,7 +164,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -176,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0">
+    <comment ref="F11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +200,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -219,7 +214,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -236,7 +230,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -250,7 +243,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -287,7 +279,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -304,7 +295,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -320,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="132">
   <si>
     <t>Sim</t>
   </si>
@@ -334,12 +324,6 @@
     <t>Recon</t>
   </si>
   <si>
-    <t>ART</t>
-  </si>
-  <si>
-    <t>Obs</t>
-  </si>
-  <si>
     <t>Transcar</t>
   </si>
   <si>
@@ -580,7 +564,7 @@
     <t>timeShiftSec</t>
   </si>
   <si>
-    <t>frameRateHz</t>
+    <t>kineticsec</t>
   </si>
   <si>
     <t>rotCCW</t>
@@ -728,12 +712,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="0"/>
-    <numFmt numFmtId="168" formatCode="0.00E+000"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="0.00E+000"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -905,7 +888,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -984,13 +967,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
@@ -1037,7 +1013,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1046,12 +1022,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1154,14 +1130,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1198,18 +1166,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1234,19 +1190,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1274,7 +1230,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1290,15 +1246,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1380,239 +1336,213 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.1071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.13775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.70408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.69897959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.5357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
+      <c r="F2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
+      <c r="F3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
+        <v>9</v>
+      </c>
+      <c r="F4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="8"/>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
+      <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
+      <c r="F6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
+      <c r="F7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
+      <c r="F8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
+      <c r="F9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="13"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="14" t="s">
-        <v>22</v>
+      <c r="F10" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="5"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="14" t="s">
-        <v>24</v>
+      <c r="F11" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="5"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="15" t="s">
-        <v>27</v>
+      <c r="F13" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
+      <c r="F14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="7"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="7"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="16" t="s">
-        <v>31</v>
+      <c r="F16" s="16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="7"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="16" t="s">
-        <v>33</v>
+      <c r="F17" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="7"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="16" t="s">
-        <v>35</v>
+      <c r="F18" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="7"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="1" t="n">
+      <c r="F19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1620,111 +1550,100 @@
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="7"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="19" t="n">
         <v>200</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="19" t="n">
         <v>1200</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
+      <c r="F22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
-      <c r="G23" s="0"/>
-      <c r="H23" s="0"/>
+      <c r="F23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="7"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="1" t="s">
-        <v>40</v>
+      <c r="F24" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
-      <c r="G28" s="0"/>
-      <c r="H28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
-      <c r="G29" s="0"/>
-      <c r="H29" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1732,199 +1651,174 @@
       <c r="A31" s="4"/>
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
-      <c r="G31" s="0"/>
-      <c r="H31" s="0"/>
+      <c r="F31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="7"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="23" t="n">
+      <c r="F32" s="23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="G33" s="0"/>
-      <c r="H33" s="24"/>
+      <c r="F33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="G34" s="0"/>
-      <c r="H34" s="0"/>
+      <c r="F34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" s="26" t="n">
         <v>0</v>
       </c>
       <c r="C35" s="26"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
+      <c r="F35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" s="22" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="22"/>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
+      <c r="F36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
+      <c r="F37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38" s="0"/>
-      <c r="C38" s="0"/>
-      <c r="G38" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="0"/>
+      <c r="C38" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
-      <c r="G39" s="0"/>
-      <c r="H39" s="0"/>
+      <c r="F39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="0"/>
+      <c r="F40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="0"/>
+      <c r="F41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="0"/>
+      <c r="F42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="13"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="15" t="n">
+      <c r="F43" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="31" t="s">
-        <v>56</v>
+      <c r="A44" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
-      <c r="D44" s="32" t="n">
+      <c r="D44" s="30" t="n">
         <v>0.05</v>
       </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="0"/>
-      <c r="H44" s="0"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="31" t="s">
-        <v>57</v>
+      <c r="A45" s="29" t="s">
+        <v>55</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="0"/>
-      <c r="H45" s="0"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="31" t="s">
-        <v>58</v>
+      <c r="A46" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
-      <c r="D46" s="34" t="n">
+      <c r="D46" s="32" t="n">
         <v>-3.8</v>
       </c>
-      <c r="E46" s="35"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="0"/>
-      <c r="H46" s="0"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="31" t="s">
-        <v>59</v>
+      <c r="A47" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
-      <c r="D47" s="34" t="n">
+      <c r="D47" s="32" t="n">
         <v>7.1</v>
       </c>
-      <c r="E47" s="35"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="0"/>
-      <c r="H47" s="0"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="31" t="s">
-        <v>60</v>
+      <c r="A48" s="29" t="s">
+        <v>58</v>
       </c>
       <c r="B48" s="0"/>
       <c r="C48" s="0"/>
-      <c r="D48" s="34" t="n">
+      <c r="D48" s="32" t="n">
         <v>89</v>
       </c>
-      <c r="E48" s="35"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="0"/>
-      <c r="H48" s="0"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="31" t="s">
-        <v>61</v>
+      <c r="A49" s="29" t="s">
+        <v>59</v>
       </c>
       <c r="B49" s="0"/>
       <c r="C49" s="0"/>
-      <c r="D49" s="36" t="n">
+      <c r="D49" s="34" t="n">
         <v>1000</v>
       </c>
-      <c r="E49" s="37"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="0"/>
-      <c r="H49" s="0"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4"/>
@@ -1932,17 +1826,15 @@
       <c r="C50" s="0"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B51" s="0"/>
       <c r="C51" s="0"/>
       <c r="D51" s="5"/>
       <c r="E51" s="15"/>
-      <c r="F51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4"/>
@@ -1950,22 +1842,20 @@
       <c r="C52" s="0"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B53" s="18"/>
       <c r="C53" s="7"/>
       <c r="E53" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="F53" s="13"/>
+        <v>62</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B54" s="0"/>
       <c r="C54" s="0"/>
@@ -1973,11 +1863,10 @@
       <c r="E54" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="F54" s="13"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B55" s="0"/>
       <c r="C55" s="0"/>
@@ -1985,78 +1874,70 @@
       <c r="E55" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="38"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="36"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B57" s="0"/>
       <c r="C57" s="0"/>
-      <c r="F57" s="40"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
-      <c r="F58" s="41"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
-      <c r="F59" s="42"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
-      <c r="F60" s="41"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
-      <c r="F61" s="28"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4"/>
       <c r="B62" s="0"/>
       <c r="C62" s="0"/>
-      <c r="F62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B63" s="0"/>
       <c r="C63" s="0"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E63" s="38"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0"/>
       <c r="C64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="31" t="s">
-        <v>73</v>
+      <c r="A65" s="29" t="s">
+        <v>71</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C65" s="5"/>
     </row>
@@ -2080,30 +1961,29 @@
   </sheetPr>
   <dimension ref="A1:IQ45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="21.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="22.9744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="23.0459183673469"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="44" width="10.4132653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.4132653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="39" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="39" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="39" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="45" t="n">
+      <c r="B1" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="n">
+      <c r="C1" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="46" t="n">
+      <c r="D1" s="41" t="n">
         <v>2</v>
       </c>
       <c r="E1" s="0"/>
@@ -2356,7 +2236,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2616,16 +2496,16 @@
       <c r="IQ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="47" t="n">
+      <c r="A3" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="47" t="n">
+      <c r="C3" s="42" t="n">
         <v>3.1436</v>
       </c>
-      <c r="D3" s="48" t="n">
+      <c r="D3" s="43" t="n">
         <v>10</v>
       </c>
       <c r="E3" s="0"/>
@@ -2877,13 +2757,13 @@
       <c r="IQ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="47" t="n">
+      <c r="A4" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="47" t="n">
+      <c r="C4" s="42" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
@@ -3138,8 +3018,8 @@
       <c r="IQ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
-        <v>78</v>
+      <c r="A5" s="29" t="s">
+        <v>76</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>512</v>
@@ -3399,8 +3279,8 @@
       <c r="IQ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="s">
-        <v>79</v>
+      <c r="A6" s="44" t="s">
+        <v>77</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>90</v>
@@ -3660,8 +3540,8 @@
       <c r="IQ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="50" t="s">
-        <v>80</v>
+      <c r="A7" s="45" t="s">
+        <v>78</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>9</v>
@@ -3921,8 +3801,8 @@
       <c r="IQ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="s">
-        <v>81</v>
+      <c r="A8" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1500</v>
@@ -4183,12 +4063,12 @@
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="51" t="n">
+        <v>80</v>
+      </c>
+      <c r="B9" s="46" t="n">
         <v>250</v>
       </c>
-      <c r="C9" s="51" t="n">
+      <c r="C9" s="46" t="n">
         <v>250</v>
       </c>
       <c r="D9" s="0" t="n">
@@ -4444,10 +4324,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
+        <v>81</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -4698,8 +4578,8 @@
       <c r="IQ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38" t="s">
-        <v>84</v>
+      <c r="A11" s="36" t="s">
+        <v>82</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4954,9 +4834,9 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="53"/>
+        <v>83</v>
+      </c>
+      <c r="B12" s="48"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -5209,16 +5089,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>50</v>
+        <v>0.02</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>50</v>
+        <v>0.02</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>50</v>
+        <v>0.02</v>
       </c>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
@@ -5469,13 +5349,13 @@
       <c r="IQ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="55" t="n">
+      <c r="A14" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="50" t="n">
         <v>-1</v>
       </c>
-      <c r="C14" s="55" t="n">
+      <c r="C14" s="50" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="0"/>
@@ -5728,11 +5608,11 @@
       <c r="IQ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="56" t="s">
-        <v>88</v>
+      <c r="A15" s="51" t="s">
+        <v>86</v>
       </c>
       <c r="B15" s="0"/>
-      <c r="C15" s="57"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -5983,11 +5863,11 @@
       <c r="IQ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="56" t="s">
-        <v>89</v>
+      <c r="A16" s="51" t="s">
+        <v>87</v>
       </c>
       <c r="B16" s="0"/>
-      <c r="C16" s="57"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -6238,11 +6118,11 @@
       <c r="IQ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="60"/>
+      <c r="A17" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -6494,7 +6374,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6750,7 +6630,7 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
       <c r="B19" s="0"/>
-      <c r="C19" s="61"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -7002,10 +6882,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="61"/>
+        <v>90</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -7257,10 +7137,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="61"/>
+        <v>91</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -7512,7 +7392,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7767,7 +7647,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -8022,7 +7902,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">B9*0.9</f>
@@ -8539,7 +8419,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>15</v>
@@ -8550,7 +8430,7 @@
       <c r="D26" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="1"/>
       <c r="G26" s="0"/>
       <c r="H26" s="0"/>
@@ -8800,7 +8680,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>2</v>
@@ -8811,7 +8691,7 @@
       <c r="D27" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="1"/>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
@@ -9067,7 +8947,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>512</v>
@@ -9075,13 +8955,13 @@
       <c r="C29" s="0" t="n">
         <v>512</v>
       </c>
-      <c r="D29" s="44" t="n">
+      <c r="D29" s="39" t="n">
         <v>512</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>512</v>
@@ -9089,13 +8969,13 @@
       <c r="C30" s="0" t="n">
         <v>512</v>
       </c>
-      <c r="D30" s="44" t="n">
+      <c r="D30" s="39" t="n">
         <v>512</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -9103,13 +8983,13 @@
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="44" t="n">
+      <c r="D31" s="39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -9117,13 +8997,13 @@
       <c r="C32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="44" t="n">
+      <c r="D32" s="39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -9137,24 +9017,24 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="62" t="n">
+        <v>102</v>
+      </c>
+      <c r="B35" s="57" t="n">
         <v>65.1186367</v>
       </c>
-      <c r="C35" s="62" t="n">
+      <c r="C35" s="57" t="n">
         <v>65.12657</v>
       </c>
       <c r="D35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="62" t="n">
+        <v>103</v>
+      </c>
+      <c r="B36" s="57" t="n">
         <v>-147.432975</v>
       </c>
-      <c r="C36" s="62" t="n">
+      <c r="C36" s="57" t="n">
         <v>-147.496908333</v>
       </c>
       <c r="D36" s="0"/>
@@ -9167,7 +9047,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>77.51</v>
@@ -9179,7 +9059,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>19.92</v>
@@ -9191,25 +9071,25 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D41" s="0"/>
     </row>
@@ -9220,47 +9100,47 @@
       <c r="D42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="63" t="n">
+      <c r="A43" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="58" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C43" s="63" t="n">
+      <c r="C43" s="58" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="D43" s="63" t="n">
+      <c r="D43" s="58" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="44" t="n">
+      <c r="A44" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="44" t="n">
+      <c r="C44" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="D44" s="44" t="n">
+      <c r="D44" s="39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" s="44" t="n">
+      <c r="A45" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="44" t="n">
+      <c r="C45" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="D45" s="44" t="n">
+      <c r="D45" s="39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9292,9 +9172,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.4387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9323,33 +9203,33 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="64" t="n">
+      <c r="C2" s="59" t="n">
         <v>0.02</v>
       </c>
-      <c r="D2" s="64" t="n">
+      <c r="D2" s="59" t="n">
         <v>0.04</v>
       </c>
-      <c r="E2" s="64" t="n">
+      <c r="E2" s="59" t="n">
         <v>0.06</v>
       </c>
-      <c r="F2" s="64" t="n">
+      <c r="F2" s="59" t="n">
         <v>0.08</v>
       </c>
-      <c r="G2" s="64" t="n">
+      <c r="G2" s="59" t="n">
         <v>0.1</v>
       </c>
-      <c r="H2" s="64" t="n">
+      <c r="H2" s="59" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>6</v>
@@ -9375,21 +9255,21 @@
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>0.1</v>
@@ -9415,7 +9295,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
@@ -9441,59 +9321,59 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>10000</v>
@@ -9519,33 +9399,33 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="65" t="n">
+        <v>125</v>
+      </c>
+      <c r="B12" s="60" t="n">
         <v>1100000000000</v>
       </c>
-      <c r="C12" s="65" t="n">
+      <c r="C12" s="60" t="n">
         <v>900000000000</v>
       </c>
-      <c r="D12" s="65" t="n">
+      <c r="D12" s="60" t="n">
         <v>700000000000</v>
       </c>
-      <c r="E12" s="65" t="n">
+      <c r="E12" s="60" t="n">
         <v>500000000000</v>
       </c>
-      <c r="F12" s="65" t="n">
+      <c r="F12" s="60" t="n">
         <v>225000000000</v>
       </c>
-      <c r="G12" s="65" t="n">
+      <c r="G12" s="60" t="n">
         <v>100000000000</v>
       </c>
-      <c r="H12" s="65" t="n">
+      <c r="H12" s="60" t="n">
         <v>110000000000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.25</v>
@@ -9571,7 +9451,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.8</v>
@@ -9597,7 +9477,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3</v>
@@ -9623,7 +9503,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
@@ -9649,7 +9529,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>7500</v>
@@ -9675,7 +9555,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.4</v>
